--- a/output/kitti_models/PartA2/PartA2_kitti_more_metrics_stat.xlsx
+++ b/output/kitti_models/PartA2/PartA2_kitti_more_metrics_stat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Projects\BeamReduction\OpenPCDet\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Research\Projects\BeamReduction\OpenPCDet\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{559A41B8-7116-47C9-842C-89E8DCE0FDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685D8749-40B1-4671-AAB8-C102BD0B83EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D0DED7B2-1A5F-466F-A837-C22216C35861}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{D0DED7B2-1A5F-466F-A837-C22216C35861}"/>
   </bookViews>
   <sheets>
     <sheet name="PartA2_kitti_more_metrics_stat" sheetId="1" r:id="rId1"/>
@@ -1410,6 +1410,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1417,7 +1418,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1452,7 +1452,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1486,8 +1486,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Recall/RCNN</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3D/Moderate_R40 Standard Deviation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1523,17 +1530,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11741426071741035"/>
-          <c:y val="0.17231126596980256"/>
-          <c:w val="0.80203018372703427"/>
-          <c:h val="0.56291109952719331"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1542,11 +1539,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PartA2_kitti_more_metrics_stat!$E$1</c:f>
+              <c:f>PartA2_kitti_more_metrics_stat!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>recall/rcnn_0.3_mean</c:v>
+                  <c:v>Car_3d/moderate_R40_std</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1601,36 +1598,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PartA2_kitti_more_metrics_stat!$E$2:$E$10</c:f>
+              <c:f>PartA2_kitti_more_metrics_stat!$X$2:$X$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.97070000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96749399999999997</c:v>
+                  <c:v>0.70914736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96289100000000005</c:v>
+                  <c:v>2.164743047</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95557999999999998</c:v>
+                  <c:v>2.6124799429999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.949657576</c:v>
+                  <c:v>3.1295759369999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93660399999999999</c:v>
+                  <c:v>4.5762690060000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92227199999999998</c:v>
+                  <c:v>5.6267160860000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.89821099999999998</c:v>
+                  <c:v>7.5003045820000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.87568061200000002</c:v>
+                  <c:v>7.3670827570000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1638,7 +1635,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1434-49CB-A341-6B7A3C27FE98}"/>
+              <c16:uniqueId val="{00000000-AE7C-4DE9-BBE5-193097C82572}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1647,11 +1644,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PartA2_kitti_more_metrics_stat!$I$1</c:f>
+              <c:f>PartA2_kitti_more_metrics_stat!$AJ$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>recall/rcnn_0.5_mean</c:v>
+                  <c:v>Pedestrian_3d/moderate_R40_std</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1706,36 +1703,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PartA2_kitti_more_metrics_stat!$I$2:$I$10</c:f>
+              <c:f>PartA2_kitti_more_metrics_stat!$AJ$2:$AJ$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.93589999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92942800000000003</c:v>
+                  <c:v>2.3113926990000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92094799999999999</c:v>
+                  <c:v>3.4868828490000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90922800000000004</c:v>
+                  <c:v>4.4967369179999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.898322222</c:v>
+                  <c:v>6.2619403980000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87965000000000004</c:v>
+                  <c:v>7.1482990180000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85913399999999995</c:v>
+                  <c:v>7.8223909100000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82908300000000001</c:v>
+                  <c:v>8.0664788460000008</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80093775499999997</c:v>
+                  <c:v>8.0909854160000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1743,7 +1740,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1434-49CB-A341-6B7A3C27FE98}"/>
+              <c16:uniqueId val="{00000001-AE7C-4DE9-BBE5-193097C82572}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1752,11 +1749,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>PartA2_kitti_more_metrics_stat!$M$1</c:f>
+              <c:f>PartA2_kitti_more_metrics_stat!$AV$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>recall/rcnn_0.7_mean</c:v>
+                  <c:v>Cyclist_3d/moderate_R40_std</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1811,36 +1808,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PartA2_kitti_more_metrics_stat!$M$2:$M$10</c:f>
+              <c:f>PartA2_kitti_more_metrics_stat!$AV$2:$AV$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.74719800000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73662399999999995</c:v>
+                  <c:v>2.3746149499999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72419999999999995</c:v>
+                  <c:v>3.8882998020000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70739300000000005</c:v>
+                  <c:v>5.2216923209999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69257575800000004</c:v>
+                  <c:v>6.5143073510000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.668458</c:v>
+                  <c:v>7.3149702369999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64217199999999997</c:v>
+                  <c:v>8.6875001859999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.608908</c:v>
+                  <c:v>9.5421920320000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57752040800000004</c:v>
+                  <c:v>9.3664938020000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1848,7 +1845,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1434-49CB-A341-6B7A3C27FE98}"/>
+              <c16:uniqueId val="{00000002-AE7C-4DE9-BBE5-193097C82572}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1861,11 +1858,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="170161727"/>
-        <c:axId val="170162207"/>
+        <c:axId val="180791840"/>
+        <c:axId val="180792800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170161727"/>
+        <c:axId val="180791840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1891,7 +1888,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t># Beam Removed</a:t>
                 </a:r>
               </a:p>
@@ -1963,7 +1967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170162207"/>
+        <c:crossAx val="180792800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1971,7 +1975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170162207"/>
+        <c:axId val="180792800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,8 +2015,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Recall/RCNN</a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>3D/Moderate_R40 SD</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2077,7 +2088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170161727"/>
+        <c:crossAx val="180791840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2122,6 +2133,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2129,7 +2141,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2164,7 +2175,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2831,6 +2842,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2838,7 +2850,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2873,7 +2884,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2894,7 +2905,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2926,7 +2937,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2963,7 +2974,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2972,7 +2983,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3068,7 +3092,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -3077,7 +3101,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3173,7 +3210,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -3182,7 +3219,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3271,6 +3321,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="963210335"/>
         <c:axId val="963206495"/>
@@ -3282,6 +3333,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3289,7 +3354,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3302,14 +3367,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t># Beam Removed</a:t>
                 </a:r>
               </a:p>
@@ -3328,7 +3386,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3366,7 +3424,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3395,20 +3453,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3416,7 +3460,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3429,17 +3473,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>AOS/Moderate_R40</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3456,7 +3492,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3478,8 +3514,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3515,39 +3557,9 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3555,11 +3567,10 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3590,7 +3601,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4272,6 +4283,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4279,7 +4291,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4314,7 +4325,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4981,6 +4992,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4988,7 +5000,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5023,7 +5034,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5044,7 +5055,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5076,7 +5087,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5113,7 +5124,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -5122,7 +5133,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -5218,7 +5242,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -5227,7 +5251,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -5323,7 +5360,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -5332,7 +5369,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -5421,6 +5471,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="963253535"/>
         <c:axId val="963254015"/>
@@ -5432,6 +5483,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5439,7 +5504,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5452,14 +5517,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t># Beam Removed</a:t>
                 </a:r>
               </a:p>
@@ -5478,7 +5536,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5516,7 +5574,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5545,20 +5603,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5566,7 +5610,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5598,7 +5642,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5620,8 +5664,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5657,39 +5707,9 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5697,11 +5717,10 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -5732,7 +5751,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6399,6 +6418,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6406,7 +6426,1363 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Recall/RCNN</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Recall/RCNN_0.3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PartA2_kitti_more_metrics_stat!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.97070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96749399999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96289100000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95557999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.949657576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93660399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92227199999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89821099999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87568061200000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33FD-41BE-BA83-AD6D9010BF94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Recall/RCNN_0.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PartA2_kitti_more_metrics_stat!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.93589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92942800000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92094799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90922800000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.898322222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87965000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85913399999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82908300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80093775499999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-33FD-41BE-BA83-AD6D9010BF94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Recall/RCNN_0.7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PartA2_kitti_more_metrics_stat!$M$2:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.74719800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73662399999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72419999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70739300000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69257575800000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.668458</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64217199999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.608908</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57752040800000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-33FD-41BE-BA83-AD6D9010BF94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1652638832"/>
+        <c:axId val="1652635952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1652638832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># Beam Removed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1652635952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1652635952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Recall/RCNN</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1652638832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>AOS/Moderate_R40 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Standard Deviation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PartA2_kitti_more_metrics_stat!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Car_aos/moderate_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PartA2_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PartA2_kitti_more_metrics_stat!$R$2:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98669267599999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.882154423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1009258470000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6771738900000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0186431100000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9134563269999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9488053189999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2996469660000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C302-45F7-861D-B2635F7A15FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PartA2_kitti_more_metrics_stat!$AD$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pedestrian_aos/moderate_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PartA2_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PartA2_kitti_more_metrics_stat!$AD$2:$AD$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.912307185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9168082449999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9496049950000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6434833800000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7373925789999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1381928610000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8572004060000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7580842239999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C302-45F7-861D-B2635F7A15FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PartA2_kitti_more_metrics_stat!$AP$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyclist_aos/moderate_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PartA2_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PartA2_kitti_more_metrics_stat!$AP$2:$AP$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9549272590000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4898448249999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7457864540000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2134396379999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1413466690000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.274396437</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.36926347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.416251170000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C302-45F7-861D-B2635F7A15FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1634395424"/>
+        <c:axId val="1634391104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1634395424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t># Beam Removed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1634391104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1634391104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>AOS/Moderate_R40 SD</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1634395424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6442,6 +7818,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6761,6 +8177,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7277,7 +8733,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7793,7 +9249,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8309,6 +9765,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -9342,6 +11319,527 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9857,8 +12355,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9869,7 +12367,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -9892,18 +12390,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -9915,7 +12413,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -9923,11 +12421,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -9959,12 +12457,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9974,12 +12472,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9991,13 +12489,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10009,12 +12507,12 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -10024,18 +12522,19 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10057,15 +12556,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -10080,10 +12577,46 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -10091,67 +12624,128 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -10164,54 +12758,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -10221,8 +12778,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -10232,66 +12789,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -10300,14 +12798,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -10321,7 +12819,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -10337,8 +12835,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -10354,6 +12852,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10361,19 +12870,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10929,42 +13432,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>92392</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1FCF544-B486-BA97-AB4E-1AAE2DFC04CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>473392</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -10993,7 +13460,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11029,7 +13496,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11065,7 +13532,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11101,7 +13568,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11137,7 +13604,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11173,7 +13640,115 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E84D5B8-CA43-8877-B9C7-B0A41BC32F2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>325755</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>178117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>20955</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>21907</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302C205B-C67B-6EAD-F22F-CF889AB38440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>306705</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38106</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED53619-B5C9-C384-B593-5BACBFAB6E17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11502,12 +14077,15 @@
   <dimension ref="A1:AX11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA12" sqref="BA12"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AZ42" sqref="AZ42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11659,7 +14237,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11679,7 +14257,7 @@
         <v>0.93059899999999995</v>
       </c>
       <c r="H2" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0.93589999999999995</v>
@@ -11697,49 +14275,49 @@
         <v>0.74719800000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>2.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>97.862308999999996</v>
       </c>
       <c r="P2" s="1">
-        <v>9.0000000000000006E-5</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>93.575704999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>5.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>91.505101999999994</v>
       </c>
       <c r="T2" s="1">
-        <v>2.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>92.366398000000004</v>
       </c>
       <c r="V2" s="1">
-        <v>2.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>82.947100000000006</v>
       </c>
       <c r="X2">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>82.012979999999999</v>
       </c>
       <c r="Z2">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>74.304034999999999</v>
       </c>
       <c r="AB2">
-        <v>1.3500000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>69.391204999999999</v>
@@ -11751,64 +14329,64 @@
         <v>65.602149999999995</v>
       </c>
       <c r="AF2">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>66.933423000000005</v>
       </c>
       <c r="AH2">
-        <v>4.7699999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>59.763615999999999</v>
       </c>
       <c r="AJ2">
-        <v>8.4000000000000003E-4</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>54.672381000000001</v>
       </c>
       <c r="AL2">
-        <v>1.1900000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>94.143236000000002</v>
       </c>
       <c r="AN2">
-        <v>6.4000000000000005E-4</v>
+        <v>0</v>
       </c>
       <c r="AO2">
         <v>79.855874999999997</v>
       </c>
       <c r="AP2">
-        <v>1.25E-3</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
         <v>77.115654000000006</v>
       </c>
       <c r="AR2">
-        <v>1.4599999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="AS2">
         <v>90.436204000000004</v>
       </c>
       <c r="AT2">
-        <v>1.9599999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="AU2">
         <v>70.156147000000004</v>
       </c>
       <c r="AV2">
-        <v>5.2999999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="AW2">
         <v>66.961917</v>
       </c>
       <c r="AX2">
-        <v>1.17E-3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>4</v>
       </c>
@@ -11960,7 +14538,7 @@
         <v>2.2268538210000002</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>8</v>
       </c>
@@ -12112,7 +14690,7 @@
         <v>3.6359625229999999</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>12</v>
       </c>
@@ -12264,7 +14842,7 @@
         <v>4.9639612289999997</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>16</v>
       </c>
@@ -12416,7 +14994,7 @@
         <v>6.1512407810000003</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>20</v>
       </c>
@@ -12568,7 +15146,7 @@
         <v>6.9205339620000004</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>24</v>
       </c>
@@ -12720,7 +15298,7 @@
         <v>8.2296947429999996</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>28</v>
       </c>
@@ -12872,7 +15450,7 @@
         <v>9.0329082090000004</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>32</v>
       </c>
@@ -13024,7 +15602,7 @@
         <v>8.8725422589999994</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>36</v>
       </c>
